--- a/ladygolf/original_data/ladygolf.xlsx
+++ b/ladygolf/original_data/ladygolf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/User/student/Documents/GitHub/athletics/ladygolf/original_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330B0DFE-8E68-6042-A888-0F6926FD1232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F1BDA4-6D24-7445-A31C-131F71D87B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -107,9 +107,6 @@
   </si>
   <si>
     <t>Women golfers</t>
-  </si>
-  <si>
-    <t>golfers</t>
   </si>
   <si>
     <t>College sports for women</t>
@@ -385,13 +382,16 @@
     <t>Destination success: 2008-09 Tennessee Lady Vol golf</t>
   </si>
   <si>
-    <t>University of Tennessee Lady Volunteers golf media guide, 2007-2009</t>
-  </si>
-  <si>
     <t>2008</t>
   </si>
   <si>
     <t>Franz Cook, Linda</t>
+  </si>
+  <si>
+    <t>Golfers</t>
+  </si>
+  <si>
+    <t>University of Tennessee Lady Volunteers golf media guide, 2008-2009</t>
   </si>
 </sst>
 </file>
@@ -780,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -891,28 +891,28 @@
         <v>lady-vols-golf_1992</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="D2" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="I2" s="18" t="s">
         <v>40</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>23</v>
@@ -924,34 +924,34 @@
         <v>25</v>
       </c>
       <c r="M2" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="N2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="O2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="P2" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q2" s="9" t="s">
+      <c r="R2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="S2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="T2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="U2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="V2" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="V2" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="W2" s="13"/>
       <c r="X2" s="13"/>
@@ -970,25 +970,25 @@
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="H3" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="18" t="s">
         <v>40</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>23</v>
@@ -1000,34 +1000,34 @@
         <v>25</v>
       </c>
       <c r="M3" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="N3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="O3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="P3" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q3" s="9" t="s">
+      <c r="R3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="S3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="T3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="U3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="U3" s="11" t="s">
+      <c r="V3" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="W3" s="13"/>
       <c r="X3" s="13"/>
@@ -1045,28 +1045,28 @@
         <v>lady-vols-golf_1994</v>
       </c>
       <c r="B4" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="D4" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="H4" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="18" t="s">
         <v>40</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>23</v>
@@ -1078,34 +1078,34 @@
         <v>25</v>
       </c>
       <c r="M4" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="N4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="O4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="P4" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q4" s="9" t="s">
+      <c r="R4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R4" s="10" t="s">
+      <c r="S4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="S4" s="8" t="s">
+      <c r="T4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="T4" s="7" t="s">
+      <c r="U4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="U4" s="11" t="s">
+      <c r="V4" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="V4" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="W4" s="13"/>
       <c r="X4" s="13"/>
@@ -1123,28 +1123,28 @@
         <v>lady-vols-golf_1995</v>
       </c>
       <c r="B5" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="D5" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H5" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="18" t="s">
         <v>40</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>23</v>
@@ -1156,34 +1156,34 @@
         <v>25</v>
       </c>
       <c r="M5" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="N5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="O5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="8" t="s">
+      <c r="P5" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q5" s="9" t="s">
+      <c r="R5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R5" s="10" t="s">
+      <c r="S5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="S5" s="8" t="s">
+      <c r="T5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="T5" s="7" t="s">
+      <c r="U5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="U5" s="11" t="s">
+      <c r="V5" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="V5" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="W5" s="13"/>
       <c r="X5" s="13"/>
@@ -1201,28 +1201,28 @@
         <v>lady-vols-golf_1996</v>
       </c>
       <c r="B6" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="D6" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H6" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="18" t="s">
         <v>40</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>23</v>
@@ -1234,34 +1234,34 @@
         <v>25</v>
       </c>
       <c r="M6" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="N6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="O6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="P6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="P6" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q6" s="9" t="s">
+      <c r="R6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R6" s="10" t="s">
+      <c r="S6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="S6" s="8" t="s">
+      <c r="T6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="T6" s="7" t="s">
+      <c r="U6" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="U6" s="11" t="s">
+      <c r="V6" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="V6" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="W6" s="13"/>
       <c r="X6" s="13"/>
@@ -1279,28 +1279,28 @@
         <v>lady-vols-golf_1997</v>
       </c>
       <c r="B7" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="D7" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H7" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="18" t="s">
         <v>40</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>23</v>
@@ -1312,34 +1312,34 @@
         <v>25</v>
       </c>
       <c r="M7" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="N7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="O7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="O7" s="8" t="s">
+      <c r="P7" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="P7" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q7" s="9" t="s">
+      <c r="R7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R7" s="10" t="s">
+      <c r="S7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="S7" s="8" t="s">
+      <c r="T7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="T7" s="7" t="s">
+      <c r="U7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="U7" s="11" t="s">
+      <c r="V7" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="V7" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="W7" s="13"/>
       <c r="X7" s="13"/>
@@ -1357,28 +1357,28 @@
         <v>lady-vols-golf_1998</v>
       </c>
       <c r="B8" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="D8" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F8" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>68</v>
-      </c>
       <c r="H8" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="18" t="s">
         <v>40</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>23</v>
@@ -1390,34 +1390,34 @@
         <v>25</v>
       </c>
       <c r="M8" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="N8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N8" s="9" t="s">
+      <c r="O8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="O8" s="8" t="s">
+      <c r="P8" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="P8" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q8" s="9" t="s">
+      <c r="R8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R8" s="10" t="s">
+      <c r="S8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="S8" s="8" t="s">
+      <c r="T8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="T8" s="7" t="s">
+      <c r="U8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="U8" s="11" t="s">
+      <c r="V8" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="V8" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="W8" s="13"/>
       <c r="X8" s="13"/>
@@ -1435,28 +1435,28 @@
         <v>lady-vols-golf_1999</v>
       </c>
       <c r="B9" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="D9" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F9" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>73</v>
-      </c>
       <c r="H9" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="18" t="s">
         <v>40</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="J9" s="9" t="s">
         <v>23</v>
@@ -1468,34 +1468,34 @@
         <v>25</v>
       </c>
       <c r="M9" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="N9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="9" t="s">
+      <c r="O9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="O9" s="8" t="s">
+      <c r="P9" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="P9" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q9" s="9" t="s">
+      <c r="R9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R9" s="10" t="s">
+      <c r="S9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="S9" s="8" t="s">
+      <c r="T9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="T9" s="7" t="s">
+      <c r="U9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="U9" s="11" t="s">
+      <c r="V9" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="V9" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="W9" s="13"/>
       <c r="X9" s="13"/>
@@ -1513,28 +1513,28 @@
         <v>lady-vols-golf_2000</v>
       </c>
       <c r="B10" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="D10" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F10" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>78</v>
-      </c>
       <c r="H10" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="18" t="s">
         <v>40</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>23</v>
@@ -1546,34 +1546,34 @@
         <v>25</v>
       </c>
       <c r="M10" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="N10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N10" s="9" t="s">
+      <c r="O10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="8" t="s">
+      <c r="P10" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="P10" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q10" s="9" t="s">
+      <c r="R10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R10" s="10" t="s">
+      <c r="S10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="S10" s="8" t="s">
+      <c r="T10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="T10" s="7" t="s">
+      <c r="U10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="U10" s="11" t="s">
+      <c r="V10" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="V10" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="W10" s="13"/>
       <c r="X10" s="13"/>
@@ -1592,25 +1592,25 @@
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>83</v>
-      </c>
       <c r="H11" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="18" t="s">
         <v>40</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>23</v>
@@ -1622,34 +1622,34 @@
         <v>25</v>
       </c>
       <c r="M11" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="N11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N11" s="9" t="s">
+      <c r="O11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="O11" s="8" t="s">
+      <c r="P11" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="P11" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q11" s="9" t="s">
+      <c r="R11" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R11" s="10" t="s">
+      <c r="S11" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="S11" s="8" t="s">
+      <c r="T11" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="T11" s="7" t="s">
+      <c r="U11" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="U11" s="11" t="s">
+      <c r="V11" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="V11" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="W11" s="13"/>
       <c r="X11" s="13"/>
@@ -1667,28 +1667,28 @@
         <v>lady-vols-golf_2001</v>
       </c>
       <c r="B12" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="D12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F12" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>88</v>
-      </c>
       <c r="H12" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="18" t="s">
         <v>40</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="J12" s="9" t="s">
         <v>23</v>
@@ -1700,34 +1700,34 @@
         <v>25</v>
       </c>
       <c r="M12" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="N12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N12" s="9" t="s">
+      <c r="O12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="O12" s="8" t="s">
+      <c r="P12" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="P12" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q12" s="9" t="s">
+      <c r="R12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R12" s="10" t="s">
+      <c r="S12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="S12" s="8" t="s">
+      <c r="T12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="T12" s="7" t="s">
+      <c r="U12" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="U12" s="11" t="s">
+      <c r="V12" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="V12" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="W12" s="13"/>
       <c r="X12" s="13"/>
@@ -1745,28 +1745,28 @@
         <v>lady-vols-golf_2002</v>
       </c>
       <c r="B13" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="D13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H13" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="18" t="s">
         <v>40</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>23</v>
@@ -1778,34 +1778,34 @@
         <v>25</v>
       </c>
       <c r="M13" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="N13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N13" s="9" t="s">
+      <c r="O13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="O13" s="8" t="s">
+      <c r="P13" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="P13" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q13" s="9" t="s">
+      <c r="R13" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R13" s="10" t="s">
+      <c r="S13" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="S13" s="8" t="s">
+      <c r="T13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="T13" s="7" t="s">
+      <c r="U13" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="U13" s="11" t="s">
+      <c r="V13" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="V13" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="W13" s="13"/>
       <c r="X13" s="13"/>
@@ -1823,28 +1823,28 @@
         <v>lady-vols-golf_2003</v>
       </c>
       <c r="B14" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>97</v>
-      </c>
       <c r="H14" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="18" t="s">
         <v>40</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>23</v>
@@ -1856,34 +1856,34 @@
         <v>25</v>
       </c>
       <c r="M14" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="N14" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N14" s="9" t="s">
+      <c r="O14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="O14" s="8" t="s">
+      <c r="P14" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q14" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="P14" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q14" s="9" t="s">
+      <c r="R14" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R14" s="10" t="s">
+      <c r="S14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="S14" s="8" t="s">
+      <c r="T14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="T14" s="7" t="s">
+      <c r="U14" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="U14" s="11" t="s">
+      <c r="V14" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="V14" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="W14" s="13"/>
       <c r="X14" s="13"/>
@@ -1901,28 +1901,28 @@
         <v>lady-vols-golf_2004</v>
       </c>
       <c r="B15" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="D15" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F15" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>102</v>
-      </c>
       <c r="H15" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="18" t="s">
         <v>40</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="J15" s="9" t="s">
         <v>23</v>
@@ -1934,34 +1934,34 @@
         <v>25</v>
       </c>
       <c r="M15" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="N15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N15" s="9" t="s">
+      <c r="O15" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="O15" s="8" t="s">
+      <c r="P15" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="P15" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q15" s="9" t="s">
+      <c r="R15" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R15" s="10" t="s">
+      <c r="S15" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="S15" s="8" t="s">
+      <c r="T15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="T15" s="7" t="s">
+      <c r="U15" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="U15" s="11" t="s">
+      <c r="V15" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="V15" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="W15" s="13"/>
       <c r="X15" s="13"/>
@@ -1980,25 +1980,25 @@
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="H16" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="18" t="s">
         <v>40</v>
-      </c>
-      <c r="I16" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="J16" s="9" t="s">
         <v>23</v>
@@ -2010,34 +2010,34 @@
         <v>25</v>
       </c>
       <c r="M16" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="N16" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N16" s="9" t="s">
+      <c r="O16" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="O16" s="8" t="s">
+      <c r="P16" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q16" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="P16" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q16" s="9" t="s">
+      <c r="R16" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R16" s="10" t="s">
+      <c r="S16" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="S16" s="8" t="s">
+      <c r="T16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="T16" s="7" t="s">
+      <c r="U16" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="U16" s="11" t="s">
+      <c r="V16" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="V16" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="W16" s="13"/>
       <c r="X16" s="13"/>
@@ -2055,28 +2055,28 @@
         <v>lady-vols-golf_2006</v>
       </c>
       <c r="B17" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="D17" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F17" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>111</v>
-      </c>
       <c r="H17" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="18" t="s">
         <v>40</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="J17" s="9" t="s">
         <v>23</v>
@@ -2088,34 +2088,34 @@
         <v>25</v>
       </c>
       <c r="M17" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="N17" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N17" s="9" t="s">
+      <c r="O17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="O17" s="8" t="s">
+      <c r="P17" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q17" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="P17" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q17" s="9" t="s">
+      <c r="R17" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R17" s="10" t="s">
+      <c r="S17" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="S17" s="8" t="s">
+      <c r="T17" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="T17" s="7" t="s">
+      <c r="U17" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="U17" s="11" t="s">
+      <c r="V17" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="V17" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="W17" s="13"/>
       <c r="X17" s="13"/>
@@ -2133,28 +2133,28 @@
         <v>lady-vols-golf_2007</v>
       </c>
       <c r="B18" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="D18" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H18" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="18" t="s">
         <v>40</v>
-      </c>
-      <c r="I18" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="J18" s="9" t="s">
         <v>23</v>
@@ -2166,34 +2166,34 @@
         <v>25</v>
       </c>
       <c r="M18" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="N18" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N18" s="9" t="s">
+      <c r="O18" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="O18" s="8" t="s">
+      <c r="P18" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q18" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="P18" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q18" s="9" t="s">
+      <c r="R18" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R18" s="10" t="s">
+      <c r="S18" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="S18" s="8" t="s">
+      <c r="T18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="T18" s="7" t="s">
+      <c r="U18" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="U18" s="11" t="s">
+      <c r="V18" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="V18" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="W18" s="13"/>
       <c r="X18" s="13"/>
@@ -2211,28 +2211,28 @@
         <v>lady-vols-golf_2008</v>
       </c>
       <c r="B19" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>117</v>
-      </c>
       <c r="D19" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H19" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="18" t="s">
         <v>40</v>
-      </c>
-      <c r="I19" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="J19" s="9" t="s">
         <v>23</v>
@@ -2244,34 +2244,34 @@
         <v>25</v>
       </c>
       <c r="M19" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="N19" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N19" s="9" t="s">
+      <c r="O19" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="O19" s="8" t="s">
+      <c r="P19" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q19" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="P19" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q19" s="9" t="s">
+      <c r="R19" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R19" s="10" t="s">
+      <c r="S19" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="S19" s="8" t="s">
+      <c r="T19" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="T19" s="7" t="s">
+      <c r="U19" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="U19" s="11" t="s">
+      <c r="V19" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="V19" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="W19" s="13"/>
       <c r="X19" s="13"/>
